--- a/data/case1/15/P1_2.xlsx
+++ b/data/case1/15/P1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.42794182591569552</v>
+        <v>0.35323633438204638</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999999826550976</v>
+        <v>-0.0099999993387811514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999823613436</v>
+        <v>-0.0089999993313032434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999952697848</v>
+        <v>-0.011999999828987029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998258417619</v>
+        <v>-0.0059999993446693267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998205029215</v>
+        <v>-0.0059999993282850994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999788147704</v>
+        <v>-0.019999999202505947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999787565059</v>
+        <v>-0.019999999201340657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998195658932</v>
+        <v>-0.0059999993268755603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998197781679</v>
+        <v>-0.005999999328402339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.051958776446660693</v>
+        <v>-0.0044999993419203577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0041269073017220492</v>
+        <v>-0.0059999993289556741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998162059143</v>
+        <v>-0.0059999993347181757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.01199999980156452</v>
+        <v>-0.01199999928374762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998146178513</v>
+        <v>0.065696628804108315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999998139637079</v>
+        <v>-0.0059999993390782436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998131221588</v>
+        <v>-0.0059999993365673632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998060275033</v>
+        <v>-0.0089999993092053643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.07022232813717455</v>
+        <v>-0.066219943749434851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.056864787218857238</v>
+        <v>-0.0089999993402010148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999998231857781</v>
+        <v>-0.0089999993393847788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998229819411</v>
+        <v>-0.0089999993388110155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998219623123</v>
+        <v>-0.0089999993254332722</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999743563166</v>
+        <v>-0.041999999020404744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999742058591</v>
+        <v>-0.04199999901530127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998197035609</v>
+        <v>-0.0059999993261747875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998186497372</v>
+        <v>-0.0059999993233224025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998145032762</v>
+        <v>-0.005999999311223192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999798018024</v>
+        <v>-0.011999999250168258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999778294253</v>
+        <v>-0.019999999175076333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999787780993</v>
+        <v>-0.0013244178816496088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999773694711</v>
+        <v>-0.020999999161005256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999998079245387</v>
+        <v>-0.0059999992946737635</v>
       </c>
     </row>
   </sheetData>
